--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResVideoCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResVideoCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5467F4FE-2E81-4AB2-9ED5-73DB301CFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B36E9-ECB5-4306-BA4D-2D2F2800262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -196,6 +196,162 @@
   </si>
   <si>
     <t>Assets/ResAB/Video/Beginners_Movie.mp4</t>
+  </si>
+  <si>
+    <t>ResVideo_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideo_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideo_PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Alchemy1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Bomb1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Bomb2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Bomb3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Cannon1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Cannon2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Cannon3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Crystal1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Crystal2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Crystal3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Draco1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Draco2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Draco3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Flame1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Flame2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Flame3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Goblin1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Goblin2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Goblin3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Golem1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Golem2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Golem3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_IceTower1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_IceTower2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_IceTower3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_MystOrb1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_MystOrb2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_MystOrb3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Poison1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Poison2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Poison3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Rocket1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Rocket2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Rocket3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Scorpio1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Scorpio2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Scorpio3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_SpeedTower1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_SpeedTower2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_SpeedTower3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Thunder1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Thunder2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Thunder3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_XBow1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_XBow2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_XBow3</t>
   </si>
 </sst>
 </file>
@@ -314,7 +470,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -323,6 +479,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -352,9 +511,11 @@
     <sheetNames>
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
+      <sheetName val="技能"/>
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="商业化"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -362,7 +523,8 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="1">
           <cell r="B1" t="str">
             <v>视频id</v>
@@ -397,7 +559,7 @@
             <v>全流程+多人游戏画面</v>
           </cell>
           <cell r="G2" t="str">
-            <v>首次打开游戏时</v>
+            <v>新手引导第1步</v>
           </cell>
         </row>
         <row r="3">
@@ -413,9 +575,6 @@
           <cell r="F3" t="str">
             <v>环视扫图</v>
           </cell>
-          <cell r="G3" t="str">
-            <v>首次扫图时</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
@@ -431,7 +590,7 @@
             <v>手牌升级+场地升级</v>
           </cell>
           <cell r="G4" t="str">
-            <v>第1关第二回合-自动</v>
+            <v>第1关引导最后一步</v>
           </cell>
         </row>
         <row r="5">
@@ -447,9 +606,6 @@
           <cell r="F5" t="str">
             <v>展示、扫码、共同战斗</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>第2关开始前-自动</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
@@ -465,7 +621,7 @@
             <v>斜坡加速减速</v>
           </cell>
           <cell r="G6" t="str">
-            <v>第2关-自动</v>
+            <v>第2关引导第1步</v>
           </cell>
         </row>
         <row r="7">
@@ -482,7 +638,7 @@
             <v>高台加伤对比</v>
           </cell>
           <cell r="G7" t="str">
-            <v>第3关-手动</v>
+            <v>遇到雷电塔</v>
           </cell>
         </row>
         <row r="8">
@@ -499,7 +655,7 @@
             <v>隐身怪出动</v>
           </cell>
           <cell r="G8" t="str">
-            <v>第3关-手动</v>
+            <v>遇到幽灵</v>
           </cell>
         </row>
         <row r="9">
@@ -516,7 +672,7 @@
             <v>转角毒</v>
           </cell>
           <cell r="G9" t="str">
-            <v>第4关-手动</v>
+            <v>遇到毒雾塔</v>
           </cell>
         </row>
         <row r="10">
@@ -532,9 +688,6 @@
           <cell r="F10" t="str">
             <v>拖动+回收贩卖</v>
           </cell>
-          <cell r="G10" t="str">
-            <v>第5关-自动</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
@@ -550,11 +703,142 @@
             <v>弱化怪出动</v>
           </cell>
           <cell r="G11" t="str">
-            <v>第6关-手动</v>
+            <v>遇到恶魔</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>时机</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>配置文件</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>内容</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>视频文件</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>状态</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>首次进游戏</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>TutorialFirst</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>介绍视频-扫图-进入房间</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>Video_Beginners</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>ok</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>第1关开始</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>LevelTutorial_Challenge1_AR</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>放大本营、放塔，用技能</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Video_Skills</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>ok</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>第1关结束</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>FunctionMenu_Season</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>养成</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>ok</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>第2关开始</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>LevelTutorial_Challenge2_AR</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>升级</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Video_Upgrade</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>ok</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>第3关开始</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>LevelTutorial_Challenge3_AR</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>拖动</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>Video_Drag</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>ok</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>第4关开始</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>LevelTutorial_Challenge4_AR</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>斜坡</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Video_Slope</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>ok</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>第13关结束/凑齐9个塔</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>FunctionMenu_BattleDeckOperate</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>上阵引导</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>ok</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -818,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,6 +1435,513 @@
         <v>Assets/ResAB/Video/Video_Weaken.mp4</v>
       </c>
     </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"Assets/ResAB/Video/PlayerSkill/"&amp;RIGHT(D20,LEN(D20)-9)&amp;".mp4"</f>
+        <v>Assets/ResAB/Video/PlayerSkill/PlayerSkill_BreakArmor.mp4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" ref="I21:I71" si="0">"Assets/ResAB/Video/PlayerSkill/"&amp;RIGHT(D21,LEN(D21)-9)&amp;".mp4"</f>
+        <v>Assets/ResAB/Video/PlayerSkill/PlayerSkill_IceBind.mp4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/Video/PlayerSkill/PlayerSkill_TimeBarrier.mp4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="I24" t="str">
+        <f>"Assets/ResAB/Video/Tower/"&amp;RIGHT(D24,LEN(D24)-15)&amp;".mp4"</f>
+        <v>Assets/ResAB/Video/Tower/Alchemy1.mp4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="I25" t="str">
+        <f t="shared" ref="I25:I71" si="1">"Assets/ResAB/Video/Tower/"&amp;RIGHT(D25,LEN(D25)-15)&amp;".mp4"</f>
+        <v>Assets/ResAB/Video/Tower/Alchemy2.mp4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Alchemy3.mp4</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Bomb1.mp4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Bomb2.mp4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Bomb3.mp4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Cannon1.mp4</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Cannon2.mp4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Cannon3.mp4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Crystal1.mp4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Crystal2.mp4</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Crystal3.mp4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Draco1.mp4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Draco2.mp4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Draco3.mp4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Flame1.mp4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Flame2.mp4</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Flame3.mp4</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Goblin1.mp4</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Goblin2.mp4</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Goblin3.mp4</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Golem1.mp4</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Golem2.mp4</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Golem3.mp4</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/IceTower1.mp4</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/IceTower2.mp4</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/IceTower3.mp4</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/MystOrb1.mp4</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/MystOrb2.mp4</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/MystOrb3.mp4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Poison1.mp4</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Poison2.mp4</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Poison3.mp4</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Rocket1.mp4</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Rocket2.mp4</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Rocket3.mp4</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Scorpio1.mp4</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Scorpio2.mp4</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Scorpio3.mp4</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/SpeedTower1.mp4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/SpeedTower2.mp4</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/SpeedTower3.mp4</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Thunder1.mp4</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Thunder2.mp4</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/Thunder3.mp4</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/XBow1.mp4</v>
+      </c>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/XBow2.mp4</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/Video/Tower/XBow3.mp4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
